--- a/docs/BKL_idActiviteitTR_balActiviteit_15102024.xlsx
+++ b/docs/BKL_idActiviteitTR_balActiviteit_15102024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\IMEV\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26B712-2427-44A4-BED0-927D6ED06385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1331E5D-A37B-4836-BC63-E6B12042D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{844FE34F-A838-44B3-A6FA-B77DA628BB98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{844FE34F-A838-44B3-A6FA-B77DA628BB98}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatie Bkl-Bal-idActiviteitTR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="307">
   <si>
     <t>IMEV_nr.</t>
   </si>
@@ -669,9 +669,6 @@
   </si>
   <si>
     <t>TankenLNGVoertuigWerktuig</t>
-  </si>
-  <si>
-    <t>nl.imow-mnre1034.activiteit.TankenOpslaanLNG</t>
   </si>
   <si>
     <t>3.286 lid 1e</t>
@@ -1579,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D483466F-747C-4A0C-8EEC-B3810E5C7C22}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1598,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1618,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -2175,7 +2172,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>6</v>
@@ -2275,7 +2272,7 @@
         <v>156</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="30"/>
@@ -2583,13 +2580,13 @@
         <v>210</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>134</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>6</v>
@@ -2598,7 +2595,7 @@
         <v>134</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="10"/>
@@ -2607,32 +2604,32 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="F34" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="30" t="s">
         <v>219</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>220</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="10"/>
@@ -2641,25 +2638,25 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="F35" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="G35" s="30" t="s">
         <v>227</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>228</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="30"/>
@@ -2671,31 +2668,31 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>140</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
       <c r="K36" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -2703,25 +2700,25 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="F37" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="G37" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2733,31 +2730,31 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="F38" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="30" t="s">
         <v>246</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
       <c r="K38" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2765,31 +2762,31 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="E39" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="G39" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -2797,31 +2794,31 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="F40" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="7"/>
       <c r="J40" s="14"/>
       <c r="K40" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -2829,31 +2826,31 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="E41" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="G41" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="9"/>
       <c r="K41" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -2861,31 +2858,31 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="E42" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="9"/>
       <c r="K42" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -2893,25 +2890,25 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="F43" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G43" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -2923,31 +2920,31 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="E44" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="G44" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
       <c r="K44" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -2955,25 +2952,25 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="E45" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="G45" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -2985,16 +2982,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>140</v>
@@ -3009,7 +3006,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -3017,16 +3014,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>140</v>
@@ -3041,7 +3038,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
       <c r="K47" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -3049,16 +3046,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>140</v>
@@ -3073,7 +3070,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="9"/>
       <c r="K48" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -3250,6 +3247,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7e0eecf54843c268c077cd7195a71197">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a90720d4069c1647fca326513aa3de7a" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -3484,16 +3490,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005F4C7-61D3-4BE1-86D7-BE71753179F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DB11A1-5C96-44FC-8ED9-6B01FD6C4542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3510,12 +3515,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005F4C7-61D3-4BE1-86D7-BE71753179F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/BKL_idActiviteitTR_balActiviteit_15102024.xlsx
+++ b/docs/BKL_idActiviteitTR_balActiviteit_15102024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\IMEV\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1331E5D-A37B-4836-BC63-E6B12042D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26B712-2427-44A4-BED0-927D6ED06385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{844FE34F-A838-44B3-A6FA-B77DA628BB98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{844FE34F-A838-44B3-A6FA-B77DA628BB98}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatie Bkl-Bal-idActiviteitTR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="308">
   <si>
     <t>IMEV_nr.</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>TankenLNGVoertuigWerktuig</t>
+  </si>
+  <si>
+    <t>nl.imow-mnre1034.activiteit.TankenOpslaanLNG</t>
   </si>
   <si>
     <t>3.286 lid 1e</t>
@@ -1576,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D483466F-747C-4A0C-8EEC-B3810E5C7C22}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1615,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -2172,7 +2175,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>6</v>
@@ -2272,7 +2275,7 @@
         <v>156</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="30"/>
@@ -2580,13 +2583,13 @@
         <v>210</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>134</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>6</v>
@@ -2595,7 +2598,7 @@
         <v>134</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="10"/>
@@ -2604,32 +2607,32 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="10"/>
@@ -2638,25 +2641,25 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="30"/>
@@ -2668,31 +2671,31 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>140</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
       <c r="K36" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -2700,25 +2703,25 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2730,31 +2733,31 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
       <c r="K38" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2762,31 +2765,31 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -2794,31 +2797,31 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="7"/>
       <c r="J40" s="14"/>
       <c r="K40" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -2826,31 +2829,31 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="9"/>
       <c r="K41" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -2858,31 +2861,31 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="9"/>
       <c r="K42" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -2890,25 +2893,25 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -2920,31 +2923,31 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
       <c r="K44" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -2952,25 +2955,25 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -2982,16 +2985,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>140</v>
@@ -3006,7 +3009,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -3014,16 +3017,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>140</v>
@@ -3038,7 +3041,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
       <c r="K47" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -3046,16 +3049,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>140</v>
@@ -3070,7 +3073,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="9"/>
       <c r="K48" s="29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -3247,15 +3250,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7e0eecf54843c268c077cd7195a71197">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a90720d4069c1647fca326513aa3de7a" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -3490,15 +3484,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005F4C7-61D3-4BE1-86D7-BE71753179F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68DB11A1-5C96-44FC-8ED9-6B01FD6C4542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3515,4 +3510,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005F4C7-61D3-4BE1-86D7-BE71753179F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>